--- a/data/trans_dic/P16A_n_R3-Clase-trans_dic.xlsx
+++ b/data/trans_dic/P16A_n_R3-Clase-trans_dic.xlsx
@@ -697,7 +697,7 @@
         <v>0.0155091944259222</v>
       </c>
       <c r="N4" s="5" t="n">
-        <v>0.03683695076919896</v>
+        <v>0.03683695076919895</v>
       </c>
     </row>
     <row r="5">
@@ -708,40 +708,40 @@
         </is>
       </c>
       <c r="C5" s="5" t="n">
-        <v>0.006841727904597762</v>
+        <v>0.006244727486410644</v>
       </c>
       <c r="D5" s="5" t="n">
-        <v>0.00236627517382728</v>
+        <v>0.002342142728251793</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>0.006342298723890168</v>
+        <v>0.006472036381644373</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>0.01671227445972048</v>
+        <v>0.01688216132319861</v>
       </c>
       <c r="G5" s="5" t="n">
-        <v>0.00618400984820823</v>
+        <v>0.006667836682118582</v>
       </c>
       <c r="H5" s="5" t="n">
-        <v>0.01026723260579408</v>
+        <v>0.01131123219375393</v>
       </c>
       <c r="I5" s="5" t="n">
-        <v>0.005890178803656193</v>
+        <v>0.005679398420767273</v>
       </c>
       <c r="J5" s="5" t="n">
-        <v>0.0312931212035399</v>
+        <v>0.03323996201931146</v>
       </c>
       <c r="K5" s="5" t="n">
-        <v>0.008932666999893793</v>
+        <v>0.008959417659148115</v>
       </c>
       <c r="L5" s="5" t="n">
-        <v>0.008643432431280717</v>
+        <v>0.008027480617808235</v>
       </c>
       <c r="M5" s="5" t="n">
-        <v>0.008046746494611692</v>
+        <v>0.009036220997080216</v>
       </c>
       <c r="N5" s="5" t="n">
-        <v>0.02751843116944824</v>
+        <v>0.02772622346228802</v>
       </c>
     </row>
     <row r="6">
@@ -752,40 +752,40 @@
         </is>
       </c>
       <c r="C6" s="5" t="n">
-        <v>0.03115273536780149</v>
+        <v>0.03299661011803172</v>
       </c>
       <c r="D6" s="5" t="n">
-        <v>0.03198080409660264</v>
+        <v>0.03234528644097438</v>
       </c>
       <c r="E6" s="5" t="n">
-        <v>0.03269582783389912</v>
+        <v>0.03221747841896602</v>
       </c>
       <c r="F6" s="5" t="n">
-        <v>0.04257294123199126</v>
+        <v>0.04176074780540995</v>
       </c>
       <c r="G6" s="5" t="n">
-        <v>0.03888881965998969</v>
+        <v>0.04030050581579506</v>
       </c>
       <c r="H6" s="5" t="n">
-        <v>0.04968162111762852</v>
+        <v>0.05085290661910175</v>
       </c>
       <c r="I6" s="5" t="n">
-        <v>0.03337020354640934</v>
+        <v>0.03368283290196804</v>
       </c>
       <c r="J6" s="5" t="n">
-        <v>0.06548397679260788</v>
+        <v>0.0680258584029375</v>
       </c>
       <c r="K6" s="5" t="n">
-        <v>0.02887939143650434</v>
+        <v>0.02861839414026054</v>
       </c>
       <c r="L6" s="5" t="n">
-        <v>0.03117146697036435</v>
+        <v>0.02892692683895681</v>
       </c>
       <c r="M6" s="5" t="n">
-        <v>0.02780068636855447</v>
+        <v>0.02797605520412766</v>
       </c>
       <c r="N6" s="5" t="n">
-        <v>0.0477538815166299</v>
+        <v>0.04876582623059702</v>
       </c>
     </row>
     <row r="7">
@@ -809,7 +809,7 @@
         <v>0.003164744621841484</v>
       </c>
       <c r="F7" s="5" t="n">
-        <v>0.04369401887587368</v>
+        <v>0.04369401887587367</v>
       </c>
       <c r="G7" s="5" t="n">
         <v>0.005188590808069067</v>
@@ -833,7 +833,7 @@
         <v>0.009948055008526292</v>
       </c>
       <c r="N7" s="5" t="n">
-        <v>0.04808772860663169</v>
+        <v>0.04808772860663167</v>
       </c>
     </row>
     <row r="8">
@@ -844,40 +844,40 @@
         </is>
       </c>
       <c r="C8" s="5" t="n">
-        <v>0.002208473265660886</v>
+        <v>0.002220569106895268</v>
       </c>
       <c r="D8" s="5" t="n">
-        <v>0.007767839386005101</v>
+        <v>0.007431648959085748</v>
       </c>
       <c r="E8" s="5" t="n">
         <v>0</v>
       </c>
       <c r="F8" s="5" t="n">
-        <v>0.03012095566049722</v>
+        <v>0.02785054297521736</v>
       </c>
       <c r="G8" s="5" t="n">
         <v>0</v>
       </c>
       <c r="H8" s="5" t="n">
-        <v>0.01183563076505685</v>
+        <v>0.01100018019595777</v>
       </c>
       <c r="I8" s="5" t="n">
-        <v>0.007786044472141189</v>
+        <v>0.006181396678134577</v>
       </c>
       <c r="J8" s="5" t="n">
-        <v>0.0388175485439353</v>
+        <v>0.03918947715652091</v>
       </c>
       <c r="K8" s="5" t="n">
-        <v>0.002458411535345045</v>
+        <v>0.002384327071779286</v>
       </c>
       <c r="L8" s="5" t="n">
-        <v>0.01223523208875204</v>
+        <v>0.01178459349003428</v>
       </c>
       <c r="M8" s="5" t="n">
-        <v>0.004087901556105221</v>
+        <v>0.004289121650451918</v>
       </c>
       <c r="N8" s="5" t="n">
-        <v>0.03676957471235871</v>
+        <v>0.03504221144807006</v>
       </c>
     </row>
     <row r="9">
@@ -888,40 +888,40 @@
         </is>
       </c>
       <c r="C9" s="5" t="n">
-        <v>0.01975301545565728</v>
+        <v>0.01961402086970017</v>
       </c>
       <c r="D9" s="5" t="n">
-        <v>0.04299928493831778</v>
+        <v>0.04660415785496898</v>
       </c>
       <c r="E9" s="5" t="n">
-        <v>0.01589035555468087</v>
+        <v>0.01705864549897296</v>
       </c>
       <c r="F9" s="5" t="n">
-        <v>0.06328517201655401</v>
+        <v>0.06211691091063749</v>
       </c>
       <c r="G9" s="5" t="n">
-        <v>0.01626668855769537</v>
+        <v>0.02014151018263733</v>
       </c>
       <c r="H9" s="5" t="n">
-        <v>0.04813877994354203</v>
+        <v>0.04588880066944029</v>
       </c>
       <c r="I9" s="5" t="n">
-        <v>0.03414842478162664</v>
+        <v>0.03414650772442938</v>
       </c>
       <c r="J9" s="5" t="n">
-        <v>0.07317415304321841</v>
+        <v>0.07406718181698491</v>
       </c>
       <c r="K9" s="5" t="n">
-        <v>0.01490731515087003</v>
+        <v>0.01423777979853526</v>
       </c>
       <c r="L9" s="5" t="n">
-        <v>0.03753123364307557</v>
+        <v>0.03644874361235777</v>
       </c>
       <c r="M9" s="5" t="n">
-        <v>0.01895410416932628</v>
+        <v>0.01979866199219957</v>
       </c>
       <c r="N9" s="5" t="n">
-        <v>0.06106956331659408</v>
+        <v>0.06114657047020975</v>
       </c>
     </row>
     <row r="10">
@@ -945,7 +945,7 @@
         <v>0.01111174964612324</v>
       </c>
       <c r="F10" s="5" t="n">
-        <v>0.06432666840435435</v>
+        <v>0.06432666840435433</v>
       </c>
       <c r="G10" s="5" t="n">
         <v>0.02900282864187003</v>
@@ -980,40 +980,40 @@
         </is>
       </c>
       <c r="C11" s="5" t="n">
-        <v>0.006951260405385137</v>
+        <v>0.006348875835094429</v>
       </c>
       <c r="D11" s="5" t="n">
-        <v>0.01629998622962972</v>
+        <v>0.01610357841750424</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>0.003826815136105287</v>
+        <v>0.004071189515273711</v>
       </c>
       <c r="F11" s="5" t="n">
-        <v>0.04433910704965102</v>
+        <v>0.04601009760582089</v>
       </c>
       <c r="G11" s="5" t="n">
-        <v>0.01118295411902358</v>
+        <v>0.01132289243446353</v>
       </c>
       <c r="H11" s="5" t="n">
-        <v>0.01607167909916826</v>
+        <v>0.01885472196023362</v>
       </c>
       <c r="I11" s="5" t="n">
-        <v>0.02666676308580787</v>
+        <v>0.02724049193151275</v>
       </c>
       <c r="J11" s="5" t="n">
-        <v>0.0905198625006159</v>
+        <v>0.08664529084068615</v>
       </c>
       <c r="K11" s="5" t="n">
-        <v>0.009317729922168885</v>
+        <v>0.009328781639235345</v>
       </c>
       <c r="L11" s="5" t="n">
-        <v>0.0207551873821027</v>
+        <v>0.01991916130080524</v>
       </c>
       <c r="M11" s="5" t="n">
-        <v>0.01158517280655158</v>
+        <v>0.01290852869807848</v>
       </c>
       <c r="N11" s="5" t="n">
-        <v>0.06429727813552424</v>
+        <v>0.06474731443331866</v>
       </c>
     </row>
     <row r="12">
@@ -1024,40 +1024,40 @@
         </is>
       </c>
       <c r="C12" s="5" t="n">
-        <v>0.02955564062731978</v>
+        <v>0.02975081667600913</v>
       </c>
       <c r="D12" s="5" t="n">
-        <v>0.05089391458967928</v>
+        <v>0.0483961253689949</v>
       </c>
       <c r="E12" s="5" t="n">
-        <v>0.02205747946051831</v>
+        <v>0.02325814041858921</v>
       </c>
       <c r="F12" s="5" t="n">
-        <v>0.09091098818165044</v>
+        <v>0.0917474974954408</v>
       </c>
       <c r="G12" s="5" t="n">
-        <v>0.05956778780661788</v>
+        <v>0.0637191325870461</v>
       </c>
       <c r="H12" s="5" t="n">
-        <v>0.06402489848127192</v>
+        <v>0.06324807778764682</v>
       </c>
       <c r="I12" s="5" t="n">
-        <v>0.1024152071607597</v>
+        <v>0.1026741873197063</v>
       </c>
       <c r="J12" s="5" t="n">
-        <v>0.163968459771762</v>
+        <v>0.1582819016435606</v>
       </c>
       <c r="K12" s="5" t="n">
-        <v>0.03009699432636069</v>
+        <v>0.02951235114261577</v>
       </c>
       <c r="L12" s="5" t="n">
-        <v>0.04934683434408421</v>
+        <v>0.0492857841436258</v>
       </c>
       <c r="M12" s="5" t="n">
-        <v>0.03600886229228603</v>
+        <v>0.03555351875646798</v>
       </c>
       <c r="N12" s="5" t="n">
-        <v>0.1032427888384898</v>
+        <v>0.1018448637551585</v>
       </c>
     </row>
     <row r="13">
@@ -1081,7 +1081,7 @@
         <v>0.01891205199946472</v>
       </c>
       <c r="F13" s="5" t="n">
-        <v>0.0566600495227574</v>
+        <v>0.05666004952275741</v>
       </c>
       <c r="G13" s="5" t="n">
         <v>0.02311260822010189</v>
@@ -1116,40 +1116,40 @@
         </is>
       </c>
       <c r="C14" s="5" t="n">
-        <v>0.0116957807377484</v>
+        <v>0.01121478231522857</v>
       </c>
       <c r="D14" s="5" t="n">
-        <v>0.01090152514601657</v>
+        <v>0.01098533824136683</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>0.01255892290180464</v>
+        <v>0.01252432266337271</v>
       </c>
       <c r="F14" s="5" t="n">
-        <v>0.04584389906666991</v>
+        <v>0.04620314110886397</v>
       </c>
       <c r="G14" s="5" t="n">
-        <v>0.0124810694847735</v>
+        <v>0.01377095920069413</v>
       </c>
       <c r="H14" s="5" t="n">
-        <v>0.02307914135787925</v>
+        <v>0.02165558317982633</v>
       </c>
       <c r="I14" s="5" t="n">
-        <v>0.02028514021001602</v>
+        <v>0.02042793592387871</v>
       </c>
       <c r="J14" s="5" t="n">
-        <v>0.04957517718643447</v>
+        <v>0.04858795264306757</v>
       </c>
       <c r="K14" s="5" t="n">
-        <v>0.01439994968222701</v>
+        <v>0.01415896194887719</v>
       </c>
       <c r="L14" s="5" t="n">
-        <v>0.01820441945149961</v>
+        <v>0.01716490075178085</v>
       </c>
       <c r="M14" s="5" t="n">
-        <v>0.01760368083725275</v>
+        <v>0.01817287866852525</v>
       </c>
       <c r="N14" s="5" t="n">
-        <v>0.05036044584843344</v>
+        <v>0.05048002045487392</v>
       </c>
     </row>
     <row r="15">
@@ -1160,40 +1160,40 @@
         </is>
       </c>
       <c r="C15" s="5" t="n">
-        <v>0.02637586644650265</v>
+        <v>0.02593342079180956</v>
       </c>
       <c r="D15" s="5" t="n">
-        <v>0.02624722523020681</v>
+        <v>0.02658907362385408</v>
       </c>
       <c r="E15" s="5" t="n">
-        <v>0.02815742679081542</v>
+        <v>0.02833074806774312</v>
       </c>
       <c r="F15" s="5" t="n">
-        <v>0.07037444335319468</v>
+        <v>0.07039050799380564</v>
       </c>
       <c r="G15" s="5" t="n">
-        <v>0.03395373303464317</v>
+        <v>0.03631064770127864</v>
       </c>
       <c r="H15" s="5" t="n">
-        <v>0.04932638462989165</v>
+        <v>0.04934848379123584</v>
       </c>
       <c r="I15" s="5" t="n">
-        <v>0.04587505301885447</v>
+        <v>0.04593558685707433</v>
       </c>
       <c r="J15" s="5" t="n">
-        <v>0.07444245300021581</v>
+        <v>0.07311538990607769</v>
       </c>
       <c r="K15" s="5" t="n">
-        <v>0.02625956279636388</v>
+        <v>0.02654251809600233</v>
       </c>
       <c r="L15" s="5" t="n">
-        <v>0.03373099578508657</v>
+        <v>0.03169270678386611</v>
       </c>
       <c r="M15" s="5" t="n">
-        <v>0.03090763546574881</v>
+        <v>0.03218198044980982</v>
       </c>
       <c r="N15" s="5" t="n">
-        <v>0.0677343794308667</v>
+        <v>0.06762939907398646</v>
       </c>
     </row>
     <row r="16">
@@ -1217,7 +1217,7 @@
         <v>0.03151626568246518</v>
       </c>
       <c r="F16" s="5" t="n">
-        <v>0.05037747611847577</v>
+        <v>0.05037747611847575</v>
       </c>
       <c r="G16" s="5" t="n">
         <v>0.0205492619421655</v>
@@ -1252,40 +1252,40 @@
         </is>
       </c>
       <c r="C17" s="5" t="n">
-        <v>0.01257644329938758</v>
+        <v>0.01191697318432274</v>
       </c>
       <c r="D17" s="5" t="n">
-        <v>0.008182099637942277</v>
+        <v>0.008273601594633787</v>
       </c>
       <c r="E17" s="5" t="n">
-        <v>0.02046909233201197</v>
+        <v>0.02060254179720635</v>
       </c>
       <c r="F17" s="5" t="n">
-        <v>0.03759460508692052</v>
+        <v>0.0361868268061265</v>
       </c>
       <c r="G17" s="5" t="n">
-        <v>0.01052339065329063</v>
+        <v>0.01081307333731383</v>
       </c>
       <c r="H17" s="5" t="n">
-        <v>0.04472334577596802</v>
+        <v>0.04456178450188659</v>
       </c>
       <c r="I17" s="5" t="n">
-        <v>0.03995034002456433</v>
+        <v>0.04142789751419294</v>
       </c>
       <c r="J17" s="5" t="n">
-        <v>0.1317454259803345</v>
+        <v>0.1314430320348432</v>
       </c>
       <c r="K17" s="5" t="n">
-        <v>0.01382699397948338</v>
+        <v>0.01320071995831627</v>
       </c>
       <c r="L17" s="5" t="n">
-        <v>0.03303318119916613</v>
+        <v>0.03356424775096712</v>
       </c>
       <c r="M17" s="5" t="n">
-        <v>0.03432214397575433</v>
+        <v>0.03497746777780226</v>
       </c>
       <c r="N17" s="5" t="n">
-        <v>0.09682232658942168</v>
+        <v>0.0971754753687413</v>
       </c>
     </row>
     <row r="18">
@@ -1296,40 +1296,40 @@
         </is>
       </c>
       <c r="C18" s="5" t="n">
-        <v>0.04143799999889191</v>
+        <v>0.04193877373782235</v>
       </c>
       <c r="D18" s="5" t="n">
-        <v>0.03302752943254388</v>
+        <v>0.03344926502718797</v>
       </c>
       <c r="E18" s="5" t="n">
-        <v>0.04810460365326073</v>
+        <v>0.04799920123814121</v>
       </c>
       <c r="F18" s="5" t="n">
-        <v>0.06760283316876772</v>
+        <v>0.06549012000245086</v>
       </c>
       <c r="G18" s="5" t="n">
-        <v>0.0350209485672748</v>
+        <v>0.03537281731511151</v>
       </c>
       <c r="H18" s="5" t="n">
-        <v>0.08248309591470003</v>
+        <v>0.08002001550299531</v>
       </c>
       <c r="I18" s="5" t="n">
-        <v>0.07628787850703739</v>
+        <v>0.07631149526328507</v>
       </c>
       <c r="J18" s="5" t="n">
-        <v>0.1680294935348589</v>
+        <v>0.1685993111143984</v>
       </c>
       <c r="K18" s="5" t="n">
-        <v>0.03304533511808833</v>
+        <v>0.03232112952357347</v>
       </c>
       <c r="L18" s="5" t="n">
-        <v>0.05713607965482834</v>
+        <v>0.05724696052480117</v>
       </c>
       <c r="M18" s="5" t="n">
-        <v>0.05670548555434492</v>
+        <v>0.05783726039384397</v>
       </c>
       <c r="N18" s="5" t="n">
-        <v>0.1232587409412467</v>
+        <v>0.123374583147072</v>
       </c>
     </row>
     <row r="19">
@@ -1393,31 +1393,31 @@
         <v>0</v>
       </c>
       <c r="F20" s="5" t="n">
-        <v>0.005599934293696682</v>
+        <v>0.005185916964546458</v>
       </c>
       <c r="G20" s="5" t="n">
-        <v>0.02790917859428165</v>
+        <v>0.02838894454885482</v>
       </c>
       <c r="H20" s="5" t="n">
-        <v>0.05670309296811974</v>
+        <v>0.05682399540826124</v>
       </c>
       <c r="I20" s="5" t="n">
-        <v>0.04629163810959719</v>
+        <v>0.04538521360545775</v>
       </c>
       <c r="J20" s="5" t="n">
-        <v>0.1082634472714516</v>
+        <v>0.1092255460074919</v>
       </c>
       <c r="K20" s="5" t="n">
-        <v>0.02252966476034165</v>
+        <v>0.02132956297216732</v>
       </c>
       <c r="L20" s="5" t="n">
-        <v>0.04527057820838497</v>
+        <v>0.04557193549758207</v>
       </c>
       <c r="M20" s="5" t="n">
-        <v>0.03696287335775292</v>
+        <v>0.03711134867518223</v>
       </c>
       <c r="N20" s="5" t="n">
-        <v>0.08696701346077114</v>
+        <v>0.08738453942462743</v>
       </c>
     </row>
     <row r="21">
@@ -1430,34 +1430,34 @@
       <c r="C21" s="5" t="inlineStr"/>
       <c r="D21" s="5" t="inlineStr"/>
       <c r="E21" s="5" t="n">
-        <v>0.02075392136588125</v>
+        <v>0.02313039894971481</v>
       </c>
       <c r="F21" s="5" t="n">
-        <v>0.03437272437105703</v>
+        <v>0.0330094277568764</v>
       </c>
       <c r="G21" s="5" t="n">
-        <v>0.04894124089614547</v>
+        <v>0.05014903593783205</v>
       </c>
       <c r="H21" s="5" t="n">
-        <v>0.08863871800743439</v>
+        <v>0.08941079538467729</v>
       </c>
       <c r="I21" s="5" t="n">
-        <v>0.07627738360679011</v>
+        <v>0.07541823973849267</v>
       </c>
       <c r="J21" s="5" t="n">
-        <v>0.1438643394851458</v>
+        <v>0.1446942647106423</v>
       </c>
       <c r="K21" s="5" t="n">
-        <v>0.04043192263618112</v>
+        <v>0.03978664913963335</v>
       </c>
       <c r="L21" s="5" t="n">
-        <v>0.07172981528001572</v>
+        <v>0.07131006340707718</v>
       </c>
       <c r="M21" s="5" t="n">
-        <v>0.06125575058328975</v>
+        <v>0.06165270360763311</v>
       </c>
       <c r="N21" s="5" t="n">
-        <v>0.1161239538141258</v>
+        <v>0.1167837921196241</v>
       </c>
     </row>
     <row r="22">
@@ -1493,7 +1493,7 @@
         <v>0.04338336728000192</v>
       </c>
       <c r="J22" s="5" t="n">
-        <v>0.09655393326053481</v>
+        <v>0.09655393326053482</v>
       </c>
       <c r="K22" s="5" t="n">
         <v>0.02036002993736182</v>
@@ -1505,7 +1505,7 @@
         <v>0.03028275801176237</v>
       </c>
       <c r="N22" s="5" t="n">
-        <v>0.07260233838064747</v>
+        <v>0.07260233838064746</v>
       </c>
     </row>
     <row r="23">
@@ -1516,40 +1516,40 @@
         </is>
       </c>
       <c r="C23" s="5" t="n">
-        <v>0.01114054050355614</v>
+        <v>0.0112320970757046</v>
       </c>
       <c r="D23" s="5" t="n">
-        <v>0.01343086917468509</v>
+        <v>0.01357917973280004</v>
       </c>
       <c r="E23" s="5" t="n">
-        <v>0.01248147626651445</v>
+        <v>0.01261464601718028</v>
       </c>
       <c r="F23" s="5" t="n">
-        <v>0.04174657748959792</v>
+        <v>0.04113685773770318</v>
       </c>
       <c r="G23" s="5" t="n">
-        <v>0.02078389307805968</v>
+        <v>0.02064819544876142</v>
       </c>
       <c r="H23" s="5" t="n">
-        <v>0.0428324488765434</v>
+        <v>0.04274545386874962</v>
       </c>
       <c r="I23" s="5" t="n">
-        <v>0.03669735903554368</v>
+        <v>0.03664994852248479</v>
       </c>
       <c r="J23" s="5" t="n">
-        <v>0.08964950013701267</v>
+        <v>0.08916606632840293</v>
       </c>
       <c r="K23" s="5" t="n">
-        <v>0.0170052028633375</v>
+        <v>0.01730887585953489</v>
       </c>
       <c r="L23" s="5" t="n">
-        <v>0.02988411804743149</v>
+        <v>0.02991482172956998</v>
       </c>
       <c r="M23" s="5" t="n">
-        <v>0.0260694108545864</v>
+        <v>0.02639070836347372</v>
       </c>
       <c r="N23" s="5" t="n">
-        <v>0.06797115069682645</v>
+        <v>0.06758776001267099</v>
       </c>
     </row>
     <row r="24">
@@ -1560,40 +1560,40 @@
         </is>
       </c>
       <c r="C24" s="5" t="n">
-        <v>0.01934037453060902</v>
+        <v>0.01928664834287211</v>
       </c>
       <c r="D24" s="5" t="n">
-        <v>0.02431388258825651</v>
+        <v>0.02376828201366908</v>
       </c>
       <c r="E24" s="5" t="n">
-        <v>0.02149082246046893</v>
+        <v>0.02122093434803281</v>
       </c>
       <c r="F24" s="5" t="n">
-        <v>0.05459874399650405</v>
+        <v>0.05412802141060906</v>
       </c>
       <c r="G24" s="5" t="n">
-        <v>0.03164566779292795</v>
+        <v>0.03152052596357077</v>
       </c>
       <c r="H24" s="5" t="n">
-        <v>0.05789758763773724</v>
+        <v>0.05756010104328242</v>
       </c>
       <c r="I24" s="5" t="n">
-        <v>0.05111426220678707</v>
+        <v>0.05160728118851968</v>
       </c>
       <c r="J24" s="5" t="n">
-        <v>0.1047243082638012</v>
+        <v>0.104023924361273</v>
       </c>
       <c r="K24" s="5" t="n">
-        <v>0.02405107902143875</v>
+        <v>0.02382442474999331</v>
       </c>
       <c r="L24" s="5" t="n">
-        <v>0.03879542417482205</v>
+        <v>0.0393414931509677</v>
       </c>
       <c r="M24" s="5" t="n">
-        <v>0.03507826601468307</v>
+        <v>0.03467223671691567</v>
       </c>
       <c r="N24" s="5" t="n">
-        <v>0.07748723922749537</v>
+        <v>0.07741043515176467</v>
       </c>
     </row>
     <row r="25">
@@ -1866,40 +1866,40 @@
         </is>
       </c>
       <c r="C6" s="6" t="n">
-        <v>3241</v>
+        <v>2959</v>
       </c>
       <c r="D6" s="6" t="n">
-        <v>1035</v>
+        <v>1024</v>
       </c>
       <c r="E6" s="6" t="n">
-        <v>2721</v>
+        <v>2777</v>
       </c>
       <c r="F6" s="6" t="n">
-        <v>9202</v>
+        <v>9296</v>
       </c>
       <c r="G6" s="6" t="n">
-        <v>1897</v>
+        <v>2045</v>
       </c>
       <c r="H6" s="6" t="n">
-        <v>3229</v>
+        <v>3557</v>
       </c>
       <c r="I6" s="6" t="n">
-        <v>2044</v>
+        <v>1971</v>
       </c>
       <c r="J6" s="6" t="n">
-        <v>15284</v>
+        <v>16235</v>
       </c>
       <c r="K6" s="6" t="n">
-        <v>6972</v>
+        <v>6992</v>
       </c>
       <c r="L6" s="6" t="n">
-        <v>6497</v>
+        <v>6034</v>
       </c>
       <c r="M6" s="6" t="n">
-        <v>6245</v>
+        <v>7013</v>
       </c>
       <c r="N6" s="6" t="n">
-        <v>28592</v>
+        <v>28808</v>
       </c>
     </row>
     <row r="7">
@@ -1910,40 +1910,40 @@
         </is>
       </c>
       <c r="C7" s="6" t="n">
-        <v>14759</v>
+        <v>15633</v>
       </c>
       <c r="D7" s="6" t="n">
-        <v>13982</v>
+        <v>14142</v>
       </c>
       <c r="E7" s="6" t="n">
-        <v>14030</v>
+        <v>13824</v>
       </c>
       <c r="F7" s="6" t="n">
-        <v>23441</v>
+        <v>22994</v>
       </c>
       <c r="G7" s="6" t="n">
-        <v>11926</v>
+        <v>12359</v>
       </c>
       <c r="H7" s="6" t="n">
-        <v>15623</v>
+        <v>15991</v>
       </c>
       <c r="I7" s="6" t="n">
-        <v>11581</v>
+        <v>11690</v>
       </c>
       <c r="J7" s="6" t="n">
-        <v>31983</v>
+        <v>33225</v>
       </c>
       <c r="K7" s="6" t="n">
-        <v>22539</v>
+        <v>22335</v>
       </c>
       <c r="L7" s="6" t="n">
-        <v>23431</v>
+        <v>21743</v>
       </c>
       <c r="M7" s="6" t="n">
-        <v>21577</v>
+        <v>21714</v>
       </c>
       <c r="N7" s="6" t="n">
-        <v>49618</v>
+        <v>50669</v>
       </c>
     </row>
     <row r="8">
@@ -2046,40 +2046,40 @@
         </is>
       </c>
       <c r="C10" s="6" t="n">
-        <v>810</v>
+        <v>815</v>
       </c>
       <c r="D10" s="6" t="n">
-        <v>3253</v>
+        <v>3112</v>
       </c>
       <c r="E10" s="6" t="n">
         <v>0</v>
       </c>
       <c r="F10" s="6" t="n">
-        <v>14555</v>
+        <v>13458</v>
       </c>
       <c r="G10" s="6" t="n">
         <v>0</v>
       </c>
       <c r="H10" s="6" t="n">
-        <v>4001</v>
+        <v>3718</v>
       </c>
       <c r="I10" s="6" t="n">
-        <v>2899</v>
+        <v>2301</v>
       </c>
       <c r="J10" s="6" t="n">
-        <v>16425</v>
+        <v>16583</v>
       </c>
       <c r="K10" s="6" t="n">
-        <v>1816</v>
+        <v>1762</v>
       </c>
       <c r="L10" s="6" t="n">
-        <v>9260</v>
+        <v>8919</v>
       </c>
       <c r="M10" s="6" t="n">
-        <v>3064</v>
+        <v>3215</v>
       </c>
       <c r="N10" s="6" t="n">
-        <v>33326</v>
+        <v>31761</v>
       </c>
     </row>
     <row r="11">
@@ -2090,40 +2090,40 @@
         </is>
       </c>
       <c r="C11" s="6" t="n">
-        <v>7248</v>
+        <v>7197</v>
       </c>
       <c r="D11" s="6" t="n">
-        <v>18008</v>
+        <v>19518</v>
       </c>
       <c r="E11" s="6" t="n">
-        <v>5994</v>
+        <v>6435</v>
       </c>
       <c r="F11" s="6" t="n">
-        <v>30580</v>
+        <v>30016</v>
       </c>
       <c r="G11" s="6" t="n">
-        <v>6049</v>
+        <v>7490</v>
       </c>
       <c r="H11" s="6" t="n">
-        <v>16271</v>
+        <v>15511</v>
       </c>
       <c r="I11" s="6" t="n">
-        <v>12713</v>
+        <v>12712</v>
       </c>
       <c r="J11" s="6" t="n">
-        <v>30963</v>
+        <v>31341</v>
       </c>
       <c r="K11" s="6" t="n">
-        <v>11014</v>
+        <v>10519</v>
       </c>
       <c r="L11" s="6" t="n">
-        <v>28404</v>
+        <v>27585</v>
       </c>
       <c r="M11" s="6" t="n">
-        <v>14206</v>
+        <v>14839</v>
       </c>
       <c r="N11" s="6" t="n">
-        <v>55351</v>
+        <v>55420</v>
       </c>
     </row>
     <row r="12">
@@ -2226,40 +2226,40 @@
         </is>
       </c>
       <c r="C14" s="6" t="n">
-        <v>3770</v>
+        <v>3444</v>
       </c>
       <c r="D14" s="6" t="n">
-        <v>10259</v>
+        <v>10136</v>
       </c>
       <c r="E14" s="6" t="n">
-        <v>1997</v>
+        <v>2125</v>
       </c>
       <c r="F14" s="6" t="n">
-        <v>20911</v>
+        <v>21699</v>
       </c>
       <c r="G14" s="6" t="n">
-        <v>1876</v>
+        <v>1900</v>
       </c>
       <c r="H14" s="6" t="n">
-        <v>4181</v>
+        <v>4905</v>
       </c>
       <c r="I14" s="6" t="n">
-        <v>4430</v>
+        <v>4525</v>
       </c>
       <c r="J14" s="6" t="n">
-        <v>16972</v>
+        <v>16246</v>
       </c>
       <c r="K14" s="6" t="n">
-        <v>6617</v>
+        <v>6625</v>
       </c>
       <c r="L14" s="6" t="n">
-        <v>18463</v>
+        <v>17719</v>
       </c>
       <c r="M14" s="6" t="n">
-        <v>7971</v>
+        <v>8882</v>
       </c>
       <c r="N14" s="6" t="n">
-        <v>42379</v>
+        <v>42676</v>
       </c>
     </row>
     <row r="15">
@@ -2270,40 +2270,40 @@
         </is>
       </c>
       <c r="C15" s="6" t="n">
-        <v>16031</v>
+        <v>16137</v>
       </c>
       <c r="D15" s="6" t="n">
-        <v>32033</v>
+        <v>30461</v>
       </c>
       <c r="E15" s="6" t="n">
-        <v>11512</v>
+        <v>12139</v>
       </c>
       <c r="F15" s="6" t="n">
-        <v>42875</v>
+        <v>43269</v>
       </c>
       <c r="G15" s="6" t="n">
-        <v>9994</v>
+        <v>10691</v>
       </c>
       <c r="H15" s="6" t="n">
-        <v>16655</v>
+        <v>16453</v>
       </c>
       <c r="I15" s="6" t="n">
-        <v>17014</v>
+        <v>17057</v>
       </c>
       <c r="J15" s="6" t="n">
-        <v>30744</v>
+        <v>29677</v>
       </c>
       <c r="K15" s="6" t="n">
-        <v>21374</v>
+        <v>20959</v>
       </c>
       <c r="L15" s="6" t="n">
-        <v>43896</v>
+        <v>43842</v>
       </c>
       <c r="M15" s="6" t="n">
-        <v>24775</v>
+        <v>24462</v>
       </c>
       <c r="N15" s="6" t="n">
-        <v>68048</v>
+        <v>67127</v>
       </c>
     </row>
     <row r="16">
@@ -2406,40 +2406,40 @@
         </is>
       </c>
       <c r="C18" s="6" t="n">
-        <v>14483</v>
+        <v>13888</v>
       </c>
       <c r="D18" s="6" t="n">
-        <v>12635</v>
+        <v>12732</v>
       </c>
       <c r="E18" s="6" t="n">
-        <v>14438</v>
+        <v>14398</v>
       </c>
       <c r="F18" s="6" t="n">
-        <v>51888</v>
+        <v>52295</v>
       </c>
       <c r="G18" s="6" t="n">
-        <v>8915</v>
+        <v>9836</v>
       </c>
       <c r="H18" s="6" t="n">
-        <v>17694</v>
+        <v>16602</v>
       </c>
       <c r="I18" s="6" t="n">
-        <v>16753</v>
+        <v>16871</v>
       </c>
       <c r="J18" s="6" t="n">
-        <v>42695</v>
+        <v>41844</v>
       </c>
       <c r="K18" s="6" t="n">
-        <v>28118</v>
+        <v>27647</v>
       </c>
       <c r="L18" s="6" t="n">
-        <v>35056</v>
+        <v>33054</v>
       </c>
       <c r="M18" s="6" t="n">
-        <v>34776</v>
+        <v>35901</v>
       </c>
       <c r="N18" s="6" t="n">
-        <v>100371</v>
+        <v>100609</v>
       </c>
     </row>
     <row r="19">
@@ -2450,40 +2450,40 @@
         </is>
       </c>
       <c r="C19" s="6" t="n">
-        <v>32662</v>
+        <v>32114</v>
       </c>
       <c r="D19" s="6" t="n">
-        <v>30421</v>
+        <v>30817</v>
       </c>
       <c r="E19" s="6" t="n">
-        <v>32371</v>
+        <v>32570</v>
       </c>
       <c r="F19" s="6" t="n">
-        <v>79653</v>
+        <v>79671</v>
       </c>
       <c r="G19" s="6" t="n">
-        <v>24253</v>
+        <v>25936</v>
       </c>
       <c r="H19" s="6" t="n">
-        <v>37816</v>
+        <v>37833</v>
       </c>
       <c r="I19" s="6" t="n">
-        <v>37887</v>
+        <v>37937</v>
       </c>
       <c r="J19" s="6" t="n">
-        <v>64111</v>
+        <v>62968</v>
       </c>
       <c r="K19" s="6" t="n">
-        <v>51275</v>
+        <v>51827</v>
       </c>
       <c r="L19" s="6" t="n">
-        <v>64955</v>
+        <v>61030</v>
       </c>
       <c r="M19" s="6" t="n">
-        <v>61058</v>
+        <v>63576</v>
       </c>
       <c r="N19" s="6" t="n">
-        <v>134998</v>
+        <v>134789</v>
       </c>
     </row>
     <row r="20">
@@ -2586,40 +2586,40 @@
         </is>
       </c>
       <c r="C22" s="6" t="n">
-        <v>4409</v>
+        <v>4178</v>
       </c>
       <c r="D22" s="6" t="n">
-        <v>4178</v>
+        <v>4224</v>
       </c>
       <c r="E22" s="6" t="n">
-        <v>12705</v>
+        <v>12788</v>
       </c>
       <c r="F22" s="6" t="n">
-        <v>21352</v>
+        <v>20553</v>
       </c>
       <c r="G22" s="6" t="n">
-        <v>5985</v>
+        <v>6150</v>
       </c>
       <c r="H22" s="6" t="n">
-        <v>34058</v>
+        <v>33935</v>
       </c>
       <c r="I22" s="6" t="n">
-        <v>29493</v>
+        <v>30584</v>
       </c>
       <c r="J22" s="6" t="n">
-        <v>109461</v>
+        <v>109209</v>
       </c>
       <c r="K22" s="6" t="n">
-        <v>12711</v>
+        <v>12136</v>
       </c>
       <c r="L22" s="6" t="n">
-        <v>42022</v>
+        <v>42698</v>
       </c>
       <c r="M22" s="6" t="n">
-        <v>46642</v>
+        <v>47533</v>
       </c>
       <c r="N22" s="6" t="n">
-        <v>135436</v>
+        <v>135930</v>
       </c>
     </row>
     <row r="23">
@@ -2630,40 +2630,40 @@
         </is>
       </c>
       <c r="C23" s="6" t="n">
-        <v>14526</v>
+        <v>14702</v>
       </c>
       <c r="D23" s="6" t="n">
-        <v>16864</v>
+        <v>17079</v>
       </c>
       <c r="E23" s="6" t="n">
-        <v>29859</v>
+        <v>29793</v>
       </c>
       <c r="F23" s="6" t="n">
-        <v>38396</v>
+        <v>37196</v>
       </c>
       <c r="G23" s="6" t="n">
-        <v>19918</v>
+        <v>20118</v>
       </c>
       <c r="H23" s="6" t="n">
-        <v>62813</v>
+        <v>60937</v>
       </c>
       <c r="I23" s="6" t="n">
-        <v>56319</v>
+        <v>56337</v>
       </c>
       <c r="J23" s="6" t="n">
-        <v>139607</v>
+        <v>140081</v>
       </c>
       <c r="K23" s="6" t="n">
-        <v>30379</v>
+        <v>29713</v>
       </c>
       <c r="L23" s="6" t="n">
-        <v>72684</v>
+        <v>72825</v>
       </c>
       <c r="M23" s="6" t="n">
-        <v>77060</v>
+        <v>78598</v>
       </c>
       <c r="N23" s="6" t="n">
-        <v>172416</v>
+        <v>172578</v>
       </c>
     </row>
     <row r="24">
@@ -2771,31 +2771,31 @@
         <v>0</v>
       </c>
       <c r="F26" s="6" t="n">
-        <v>1328</v>
+        <v>1230</v>
       </c>
       <c r="G26" s="6" t="n">
-        <v>34852</v>
+        <v>35451</v>
       </c>
       <c r="H26" s="6" t="n">
-        <v>62904</v>
+        <v>63038</v>
       </c>
       <c r="I26" s="6" t="n">
-        <v>50089</v>
+        <v>49108</v>
       </c>
       <c r="J26" s="6" t="n">
-        <v>91405</v>
+        <v>92217</v>
       </c>
       <c r="K26" s="6" t="n">
-        <v>34852</v>
+        <v>32996</v>
       </c>
       <c r="L26" s="6" t="n">
-        <v>62303</v>
+        <v>62718</v>
       </c>
       <c r="M26" s="6" t="n">
-        <v>50608</v>
+        <v>50812</v>
       </c>
       <c r="N26" s="6" t="n">
-        <v>94056</v>
+        <v>94507</v>
       </c>
     </row>
     <row r="27">
@@ -2808,34 +2808,34 @@
       <c r="C27" s="6" t="inlineStr"/>
       <c r="D27" s="6" t="inlineStr"/>
       <c r="E27" s="6" t="n">
-        <v>5959</v>
+        <v>6642</v>
       </c>
       <c r="F27" s="6" t="n">
-        <v>8154</v>
+        <v>7831</v>
       </c>
       <c r="G27" s="6" t="n">
-        <v>61116</v>
+        <v>62624</v>
       </c>
       <c r="H27" s="6" t="n">
-        <v>98331</v>
+        <v>99188</v>
       </c>
       <c r="I27" s="6" t="n">
-        <v>82534</v>
+        <v>81604</v>
       </c>
       <c r="J27" s="6" t="n">
-        <v>121462</v>
+        <v>122163</v>
       </c>
       <c r="K27" s="6" t="n">
-        <v>62547</v>
+        <v>61548</v>
       </c>
       <c r="L27" s="6" t="n">
-        <v>98717</v>
+        <v>98139</v>
       </c>
       <c r="M27" s="6" t="n">
-        <v>83870</v>
+        <v>84413</v>
       </c>
       <c r="N27" s="6" t="n">
-        <v>125589</v>
+        <v>126303</v>
       </c>
     </row>
     <row r="28">
@@ -2938,40 +2938,40 @@
         </is>
       </c>
       <c r="C30" s="6" t="n">
-        <v>36432</v>
+        <v>36731</v>
       </c>
       <c r="D30" s="6" t="n">
-        <v>45959</v>
+        <v>46467</v>
       </c>
       <c r="E30" s="6" t="n">
-        <v>42259</v>
+        <v>42710</v>
       </c>
       <c r="F30" s="6" t="n">
-        <v>143712</v>
+        <v>141613</v>
       </c>
       <c r="G30" s="6" t="n">
-        <v>70211</v>
+        <v>69752</v>
       </c>
       <c r="H30" s="6" t="n">
-        <v>152061</v>
+        <v>151752</v>
       </c>
       <c r="I30" s="6" t="n">
-        <v>129600</v>
+        <v>129433</v>
       </c>
       <c r="J30" s="6" t="n">
-        <v>325911</v>
+        <v>324154</v>
       </c>
       <c r="K30" s="6" t="n">
-        <v>113056</v>
+        <v>115075</v>
       </c>
       <c r="L30" s="6" t="n">
-        <v>208353</v>
+        <v>208567</v>
       </c>
       <c r="M30" s="6" t="n">
-        <v>180330</v>
+        <v>182553</v>
       </c>
       <c r="N30" s="6" t="n">
-        <v>481091</v>
+        <v>478377</v>
       </c>
     </row>
     <row r="31">
@@ -2982,40 +2982,40 @@
         </is>
       </c>
       <c r="C31" s="6" t="n">
-        <v>63247</v>
+        <v>63071</v>
       </c>
       <c r="D31" s="6" t="n">
-        <v>83200</v>
+        <v>81333</v>
       </c>
       <c r="E31" s="6" t="n">
-        <v>72762</v>
+        <v>71848</v>
       </c>
       <c r="F31" s="6" t="n">
-        <v>187955</v>
+        <v>186334</v>
       </c>
       <c r="G31" s="6" t="n">
-        <v>106903</v>
+        <v>106480</v>
       </c>
       <c r="H31" s="6" t="n">
-        <v>205544</v>
+        <v>204346</v>
       </c>
       <c r="I31" s="6" t="n">
-        <v>180515</v>
+        <v>182256</v>
       </c>
       <c r="J31" s="6" t="n">
-        <v>380714</v>
+        <v>378168</v>
       </c>
       <c r="K31" s="6" t="n">
-        <v>159899</v>
+        <v>158392</v>
       </c>
       <c r="L31" s="6" t="n">
-        <v>270483</v>
+        <v>274290</v>
       </c>
       <c r="M31" s="6" t="n">
-        <v>242648</v>
+        <v>239839</v>
       </c>
       <c r="N31" s="6" t="n">
-        <v>548445</v>
+        <v>547901</v>
       </c>
     </row>
     <row r="32">
